--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,10 +15,59 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Scoreboard Slide</t>
+  </si>
+  <si>
+    <t>Pembukaan Slide</t>
+  </si>
+  <si>
+    <t>Penyusunan soal</t>
+  </si>
+  <si>
+    <t>Program Buzzer contestant-side</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -46,15 +95,337 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scoreboard Slide</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pembukaan Slide</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Penyusunan soal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Program Buzzer contestant-side</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="48851584"/>
+        <c:axId val="48873856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="48851584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48873856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48873856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48851584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,36 +714,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -180,6 +180,9 @@
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -228,6 +231,9 @@
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -276,6 +282,9 @@
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -323,6 +332,9 @@
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,11 +351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="48851584"/>
-        <c:axId val="48873856"/>
+        <c:axId val="79070336"/>
+        <c:axId val="79071872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48851584"/>
+        <c:axId val="79070336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -352,7 +364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48873856"/>
+        <c:crossAx val="79071872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -360,7 +372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48873856"/>
+        <c:axId val="79071872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -371,7 +383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48851584"/>
+        <c:crossAx val="79070336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -718,7 +730,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,6 +767,9 @@
       <c r="B3">
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -763,6 +778,9 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -771,6 +789,9 @@
       <c r="B5">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -778,6 +799,9 @@
       </c>
       <c r="B6">
         <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Card</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Day2</t>
+  </si>
+  <si>
+    <t>Day3</t>
+  </si>
+  <si>
+    <t>Interface Penampilan Soal Pilihan</t>
   </si>
 </sst>
 </file>
@@ -113,6 +125,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -120,7 +135,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -183,6 +198,9 @@
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -234,6 +252,9 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -285,6 +306,9 @@
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -336,6 +360,9 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -349,22 +376,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79070336"/>
-        <c:axId val="79071872"/>
+        <c:axId val="251673872"/>
+        <c:axId val="251672696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79070336"/>
+        <c:axId val="251673872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79071872"/>
+        <c:crossAx val="251672696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -372,7 +399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79071872"/>
+        <c:axId val="251672696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -383,7 +410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79070336"/>
+        <c:crossAx val="251673872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -403,6 +430,1033 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0108705161854773E-2"/>
+          <c:y val="0.14393518518518519"/>
+          <c:w val="0.68788145303912807"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$20:$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$24:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interface Penampilan Soal Pilihan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$20:$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pembukaan Slide</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$20:$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Penyusunan soal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$20:$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="251675048"/>
+        <c:axId val="251673088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="251675048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251673088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="251673088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251675048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77685463122710963"/>
+          <c:y val="0.14409667541557306"/>
+          <c:w val="0.17889608115295308"/>
+          <c:h val="0.59201443569553802"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,6 +1486,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -483,7 +1567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +1602,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,15 +1811,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,6 +1854,9 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -781,6 +1868,9 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -792,6 +1882,9 @@
       <c r="C5">
         <v>2</v>
       </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -803,10 +1896,79 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -377,11 +377,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="251673872"/>
-        <c:axId val="251672696"/>
+        <c:axId val="243317496"/>
+        <c:axId val="243320632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="251673872"/>
+        <c:axId val="243317496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,7 +391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251672696"/>
+        <c:crossAx val="243320632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -399,7 +399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251672696"/>
+        <c:axId val="243320632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -410,7 +410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251673872"/>
+        <c:crossAx val="243317496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -561,7 +561,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,7 +624,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -687,7 +687,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,11 +703,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="251675048"/>
-        <c:axId val="251673088"/>
+        <c:axId val="243319848"/>
+        <c:axId val="243320240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="251675048"/>
+        <c:axId val="243319848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251673088"/>
+        <c:crossAx val="243320240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251673088"/>
+        <c:axId val="243320240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251675048"/>
+        <c:crossAx val="243319848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1814,7 +1814,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1962,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Card</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Interface Penampilan Soal Pilihan</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Menambahkan SFX</t>
+  </si>
+  <si>
+    <t>Implementasikan Soal ke Dalam Slide</t>
+  </si>
+  <si>
+    <t>Menampilkan penjelasan dari jawaban</t>
   </si>
 </sst>
 </file>
@@ -376,12 +388,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243317496"/>
-        <c:axId val="243320632"/>
+        <c:axId val="84683392"/>
+        <c:axId val="84685184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243317496"/>
+        <c:axId val="84683392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,7 +404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243320632"/>
+        <c:crossAx val="84685184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -399,7 +412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243320632"/>
+        <c:axId val="84685184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -410,7 +423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243317496"/>
+        <c:crossAx val="84683392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -702,12 +715,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243319848"/>
-        <c:axId val="243320240"/>
+        <c:axId val="84723968"/>
+        <c:axId val="84869120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243319848"/>
+        <c:axId val="84723968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243320240"/>
+        <c:crossAx val="84869120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243320240"/>
+        <c:axId val="84869120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +823,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243319848"/>
+        <c:crossAx val="84723968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -903,6 +917,252 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Menambahkan SFX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$35:$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Implementasikan Soal ke Dalam Slide</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$35:$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Menampilkan penjelasan dari jawaban</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$35:$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="84899328"/>
+        <c:axId val="84900864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84899328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84900864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84900864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84899328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1521,6 +1781,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1567,7 +1857,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1602,7 +1892,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1811,10 +2101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,10 +2255,75 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Card</t>
   </si>
@@ -68,12 +71,27 @@
   <si>
     <t>Menampilkan penjelasan dari jawaban</t>
   </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Implementasi soal dalam program contestant-slide</t>
+  </si>
+  <si>
+    <t>Menampilkan final score</t>
+  </si>
+  <si>
+    <t>Ending</t>
+  </si>
+  <si>
+    <t>Revise &amp; Finalize</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,24 +164,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -216,7 +222,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -270,7 +275,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -324,7 +328,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -378,68 +381,49 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="84683392"/>
-        <c:axId val="84685184"/>
+        <c:axId val="34950528"/>
+        <c:axId val="34968704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84683392"/>
+        <c:axId val="34950528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84685184"/>
+        <c:crossAx val="34968704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84685184"/>
+        <c:axId val="34968704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84683392"/>
+        <c:crossAx val="34950528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -447,17 +431,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -466,15 +440,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0108705161854773E-2"/>
-          <c:y val="0.14393518518518519"/>
-          <c:w val="0.68788145303912807"/>
-          <c:h val="0.61498432487605714"/>
+          <c:x val="7.0108705161854759E-2"/>
+          <c:y val="0.14393518518518525"/>
+          <c:w val="0.68788145303912829"/>
+          <c:h val="0.61498432487605703"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -516,7 +489,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -579,7 +551,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -642,7 +613,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -705,31 +675,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="84723968"/>
-        <c:axId val="84869120"/>
+        <c:axId val="35051008"/>
+        <c:axId val="35052544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84723968"/>
+        <c:axId val="35051008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -764,19 +723,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84869120"/>
+        <c:crossAx val="35052544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84869120"/>
+        <c:axId val="35052544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -794,7 +751,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -823,7 +779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84723968"/>
+        <c:crossAx val="35051008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -845,13 +801,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.77685463122710963"/>
+          <c:x val="0.77685463122710974"/>
           <c:y val="0.14409667541557306"/>
-          <c:w val="0.17889608115295308"/>
+          <c:w val="0.17889608115295313"/>
           <c:h val="0.59201443569553802"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -882,7 +837,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -911,7 +865,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -919,24 +873,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -989,7 +931,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1043,7 +984,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1097,51 +1037,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="84899328"/>
-        <c:axId val="84900864"/>
+        <c:axId val="34640256"/>
+        <c:axId val="34641792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84899328"/>
+        <c:axId val="34640256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84900864"/>
+        <c:crossAx val="34641792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84900864"/>
+        <c:axId val="34641792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84899328"/>
+        <c:crossAx val="34640256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1149,15 +1073,594 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Implementasi soal dalam program contestant-slide</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$53:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$54:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Menampilkan final score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$53:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$55:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Menampilkan final score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$53:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$55:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Implementasi soal dalam program contestant-slide</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$53:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$54:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revise &amp; Finalize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$53:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$57:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$A$54:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="6"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="7"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="8"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$53:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$56:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$A$54:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="71781376"/>
+        <c:axId val="71791360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="71781376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71791360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71791360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71781376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="10"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="11"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="12"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="13"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1811,7 +2314,122 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Day 1</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Day2</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>Day3</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Implementasi soal dalam program contestant-slide</v>
+          </cell>
+          <cell r="B54">
+            <v>1</v>
+          </cell>
+          <cell r="C54">
+            <v>3</v>
+          </cell>
+          <cell r="D54">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Menampilkan final score</v>
+          </cell>
+          <cell r="B55">
+            <v>2</v>
+          </cell>
+          <cell r="C55">
+            <v>5</v>
+          </cell>
+          <cell r="D55">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>Ending</v>
+          </cell>
+          <cell r="B56">
+            <v>1</v>
+          </cell>
+          <cell r="C56">
+            <v>2</v>
+          </cell>
+          <cell r="D56">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Revise &amp; Finalize</v>
+          </cell>
+          <cell r="B57">
+            <v>1</v>
+          </cell>
+          <cell r="C57">
+            <v>1</v>
+          </cell>
+          <cell r="D57">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1889,7 +2507,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1924,7 +2541,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2100,19 +2716,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2120,7 +2736,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +2750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2148,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2162,7 +2778,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2176,7 +2792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2190,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2198,7 +2814,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -2213,7 +2829,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2227,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2241,7 +2857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2255,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
@@ -2263,7 +2879,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2277,7 +2893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2291,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2305,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -2319,11 +2935,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -2332,24 +3027,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Card</t>
   </si>
@@ -86,12 +86,15 @@
   <si>
     <t>Revise &amp; Finalize</t>
   </si>
+  <si>
+    <t>Day 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,12 +167,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -222,6 +237,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -275,6 +291,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -328,6 +345,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -381,45 +399,63 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
-        <c:axId val="34950528"/>
-        <c:axId val="34968704"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="249519240"/>
+        <c:axId val="249519632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34950528"/>
+        <c:axId val="249519240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34968704"/>
+        <c:crossAx val="249519632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34968704"/>
+        <c:axId val="249519632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34950528"/>
+        <c:crossAx val="249519240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -431,7 +467,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -448,9 +494,21 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Penyusunan soal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -465,9 +523,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$20:$D$20</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Sheet1!$B$20:$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -476,19 +534,38 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$24:$D$24</c:f>
+              <c:f>Sheet1!$A$21:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -518,9 +595,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$20:$D$20</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Sheet1!$B$20:$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -529,16 +606,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$22:$D$22</c:f>
+              <c:f>Sheet1!$B$22:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -547,10 +627,14 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -580,9 +664,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$20:$D$20</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Sheet1!$B$20:$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -591,16 +675,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$D$23</c:f>
+              <c:f>Sheet1!$B$23:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -608,11 +695,15 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -642,9 +733,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$20:$D$20</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Sheet1!$B$20:$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -653,6 +744,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -675,20 +769,30 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
-        <c:axId val="35051008"/>
-        <c:axId val="35052544"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="249520416"/>
+        <c:axId val="293454520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35051008"/>
+        <c:axId val="249520416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -723,17 +827,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35052544"/>
+        <c:crossAx val="293454520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35052544"/>
+        <c:axId val="293454520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -751,6 +857,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -779,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35051008"/>
+        <c:crossAx val="249520416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -807,6 +914,7 @@
           <c:h val="0.59201443569553802"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -837,6 +945,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -873,12 +982,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -898,9 +1019,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$35:$D$36</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Sheet1!$B$36:$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -909,16 +1030,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$D$37</c:f>
+              <c:f>Sheet1!$B$37:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -926,11 +1050,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -951,9 +1079,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$35:$D$36</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Sheet1!$B$36:$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -962,16 +1090,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$38:$D$38</c:f>
+              <c:f>Sheet1!$B$38:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -980,10 +1111,14 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1004,9 +1139,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$35:$D$36</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Sheet1!$B$36:$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -1015,16 +1150,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$39:$D$39</c:f>
+              <c:f>Sheet1!$B$39:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1033,39 +1171,58 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
-        <c:axId val="34640256"/>
-        <c:axId val="34641792"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="293451776"/>
+        <c:axId val="293450600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34640256"/>
+        <c:axId val="293451776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34641792"/>
+        <c:crossAx val="293450600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34641792"/>
+        <c:axId val="293450600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34640256"/>
+        <c:crossAx val="293451776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1073,9 +1230,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1087,18 +1246,30 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="8"/>
+          <c:idx val="7"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$54</c:f>
+              <c:f>Sheet1!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1112,7 +1283,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$B$53:$D$53</c:f>
+              <c:f>Sheet1!$B$53:$D$53</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1129,7 +1300,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$B$54:$D$54</c:f>
+              <c:f>Sheet1!$B$54:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1145,17 +1316,18 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$55</c:f>
+              <c:f>Sheet1!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Menampilkan final score</c:v>
+                  <c:v>Ending</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1165,7 +1337,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$B$53:$D$53</c:f>
+              <c:f>Sheet1!$B$53:$D$53</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1182,15 +1354,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$B$55:$D$55</c:f>
+              <c:f>Sheet1!$B$56:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -1198,17 +1370,18 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="8"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$55</c:f>
+              <c:f>Sheet1!$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Menampilkan final score</c:v>
+                  <c:v>Revise &amp; Finalize</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1218,7 +1391,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$B$53:$D$53</c:f>
+              <c:f>Sheet1!$B$53:$D$53</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1235,15 +1408,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$B$55:$D$55</c:f>
+              <c:f>Sheet1!$B$57:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -1251,17 +1424,18 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$54</c:f>
+              <c:f>Sheet1!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implementasi soal dalam program contestant-slide</c:v>
+                  <c:v>Menampilkan final score</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1271,7 +1445,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$B$53:$D$53</c:f>
+              <c:f>Sheet1!$B$53:$D$53</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1288,15 +1462,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$B$54:$D$54</c:f>
+              <c:f>Sheet1!$B$55:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -1304,6 +1478,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1324,7 +1499,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$B$53:$D$53</c:f>
+              <c:f>Sheet1!$B$53:$D$53</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1357,6 +1532,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1364,6 +1540,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$53:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[1]Sheet1!$A$54:$A$57</c:f>
@@ -1385,6 +1578,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1392,6 +1586,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$53:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[1]Sheet1!$B$53</c:f>
@@ -1404,6 +1615,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1411,6 +1623,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$53:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[1]Sheet1!$C$53</c:f>
@@ -1423,6 +1652,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1430,6 +1660,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$53:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[1]Sheet1!$D$53</c:f>
@@ -1442,6 +1689,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -1462,7 +1710,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$B$53:$D$53</c:f>
+              <c:f>Sheet1!$B$53:$D$53</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1495,6 +1743,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -1502,6 +1751,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$53:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[1]Sheet1!$A$54:$A$57</c:f>
@@ -1523,6 +1789,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -1530,6 +1797,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$53:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[1]Sheet1!$B$53</c:f>
@@ -1542,6 +1826,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -1549,6 +1834,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$53:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[1]Sheet1!$C$53</c:f>
@@ -1561,6 +1863,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -1568,6 +1871,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$53:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[1]Sheet1!$D$53</c:f>
@@ -1580,34 +1900,51 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="71781376"/>
-        <c:axId val="71791360"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="293456480"/>
+        <c:axId val="293449424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71781376"/>
+        <c:axId val="293456480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71791360"/>
+        <c:crossAx val="293449424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71791360"/>
+        <c:axId val="293449424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71781376"/>
+        <c:crossAx val="293456480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1655,8 +1992,11 @@
         <c:delete val="1"/>
       </c:legendEntry>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1664,562 +2004,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2348,7 +2132,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2475,7 +2259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2507,9 +2291,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2541,6 +2326,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2716,19 +2502,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2736,7 +2522,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2750,7 +2536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2764,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2778,7 +2564,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2792,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2806,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2814,7 +2600,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -2827,9 +2613,11 @@
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2842,8 +2630,11 @@
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2856,8 +2647,11 @@
       <c r="D22">
         <v>2</v>
       </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2870,8 +2664,11 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
@@ -2879,7 +2676,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2892,8 +2689,11 @@
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E36" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2906,8 +2706,11 @@
       <c r="D37">
         <v>0</v>
       </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2920,8 +2723,11 @@
       <c r="D38">
         <v>0</v>
       </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -2934,8 +2740,11 @@
       <c r="D39">
         <v>0</v>
       </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>17</v>
       </c>
@@ -2943,7 +2752,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -2957,7 +2766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -2971,7 +2780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2985,7 +2794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -2999,7 +2808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -3027,24 +2836,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
